--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2076976666666667</v>
+        <v>0.2076976666666666</v>
       </c>
       <c r="H2">
-        <v>0.623093</v>
+        <v>0.6230929999999999</v>
       </c>
       <c r="I2">
-        <v>0.1208408023329848</v>
+        <v>0.1089421893552267</v>
       </c>
       <c r="J2">
-        <v>0.1208408023329848</v>
+        <v>0.1089421893552267</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.96608766666666</v>
+        <v>19.827687</v>
       </c>
       <c r="N2">
-        <v>119.898263</v>
+        <v>59.483061</v>
       </c>
       <c r="O2">
-        <v>0.2616165719423123</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="P2">
-        <v>0.2616165719423124</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="Q2">
-        <v>8.30086315416211</v>
+        <v>4.118164325296999</v>
       </c>
       <c r="R2">
-        <v>74.707768387459</v>
+        <v>37.063478927673</v>
       </c>
       <c r="S2">
-        <v>0.03161395645711407</v>
+        <v>0.01675954737287173</v>
       </c>
       <c r="T2">
-        <v>0.03161395645711407</v>
+        <v>0.01675954737287172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2076976666666667</v>
+        <v>0.2076976666666666</v>
       </c>
       <c r="H3">
-        <v>0.623093</v>
+        <v>0.6230929999999999</v>
       </c>
       <c r="I3">
-        <v>0.1208408023329848</v>
+        <v>0.1089421893552267</v>
       </c>
       <c r="J3">
-        <v>0.1208408023329848</v>
+        <v>0.1089421893552267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>255.358833</v>
       </c>
       <c r="O3">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664442</v>
       </c>
       <c r="P3">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664441</v>
       </c>
       <c r="Q3">
         <v>17.67914459227433</v>
@@ -632,10 +632,10 @@
         <v>159.112301330469</v>
       </c>
       <c r="S3">
-        <v>0.06733127591182424</v>
+        <v>0.07194818805213708</v>
       </c>
       <c r="T3">
-        <v>0.06733127591182422</v>
+        <v>0.07194818805213705</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2076976666666667</v>
+        <v>0.2076976666666666</v>
       </c>
       <c r="H4">
-        <v>0.623093</v>
+        <v>0.6230929999999999</v>
       </c>
       <c r="I4">
-        <v>0.1208408023329848</v>
+        <v>0.1089421893552267</v>
       </c>
       <c r="J4">
-        <v>0.1208408023329848</v>
+        <v>0.1089421893552267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.68018833333333</v>
+        <v>23.93873833333333</v>
       </c>
       <c r="N4">
-        <v>83.040565</v>
+        <v>71.816215</v>
       </c>
       <c r="O4">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="P4">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="Q4">
-        <v>5.749110529727222</v>
+        <v>4.972020094777221</v>
       </c>
       <c r="R4">
-        <v>51.741994767545</v>
+        <v>44.74818085299499</v>
       </c>
       <c r="S4">
-        <v>0.02189556996404653</v>
+        <v>0.0202344539302179</v>
       </c>
       <c r="T4">
-        <v>0.02189556996404653</v>
+        <v>0.0202344539302179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.511073333333333</v>
+        <v>1.698796666666667</v>
       </c>
       <c r="H5">
-        <v>4.53322</v>
+        <v>5.09639</v>
       </c>
       <c r="I5">
-        <v>0.8791591976670152</v>
+        <v>0.8910578106447734</v>
       </c>
       <c r="J5">
-        <v>0.8791591976670152</v>
+        <v>0.8910578106447733</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.96608766666666</v>
+        <v>19.827687</v>
       </c>
       <c r="N5">
-        <v>119.898263</v>
+        <v>59.483061</v>
       </c>
       <c r="O5">
-        <v>0.2616165719423123</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="P5">
-        <v>0.2616165719423124</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="Q5">
-        <v>60.39168931076221</v>
+        <v>33.68320858331</v>
       </c>
       <c r="R5">
-        <v>543.52520379686</v>
+        <v>303.14887724979</v>
       </c>
       <c r="S5">
-        <v>0.2300026154851983</v>
+        <v>0.1370793599601179</v>
       </c>
       <c r="T5">
-        <v>0.2300026154851983</v>
+        <v>0.1370793599601179</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.511073333333333</v>
+        <v>1.698796666666667</v>
       </c>
       <c r="H6">
-        <v>4.53322</v>
+        <v>5.09639</v>
       </c>
       <c r="I6">
-        <v>0.8791591976670152</v>
+        <v>0.8910578106447734</v>
       </c>
       <c r="J6">
-        <v>0.8791591976670152</v>
+        <v>0.8910578106447733</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>255.358833</v>
       </c>
       <c r="O6">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664442</v>
       </c>
       <c r="P6">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664441</v>
       </c>
       <c r="Q6">
-        <v>128.6219743258067</v>
+        <v>144.6009114347633</v>
       </c>
       <c r="R6">
-        <v>1157.59776893226</v>
+        <v>1301.40820291287</v>
       </c>
       <c r="S6">
-        <v>0.4898586352101529</v>
+        <v>0.5884772034143072</v>
       </c>
       <c r="T6">
-        <v>0.4898586352101529</v>
+        <v>0.588477203414307</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.511073333333333</v>
+        <v>1.698796666666667</v>
       </c>
       <c r="H7">
-        <v>4.53322</v>
+        <v>5.09639</v>
       </c>
       <c r="I7">
-        <v>0.8791591976670152</v>
+        <v>0.8910578106447734</v>
       </c>
       <c r="J7">
-        <v>0.8791591976670152</v>
+        <v>0.8910578106447733</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.68018833333333</v>
+        <v>23.93873833333333</v>
       </c>
       <c r="N7">
-        <v>83.040565</v>
+        <v>71.816215</v>
       </c>
       <c r="O7">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="P7">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="Q7">
-        <v>41.82679445214444</v>
+        <v>40.66704888487222</v>
       </c>
       <c r="R7">
-        <v>376.4411500693</v>
+        <v>366.00343996385</v>
       </c>
       <c r="S7">
-        <v>0.1592979469716639</v>
+        <v>0.1655012472703484</v>
       </c>
       <c r="T7">
-        <v>0.159297946971664</v>
+        <v>0.1655012472703484</v>
       </c>
     </row>
   </sheetData>
